--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H2">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N2">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q2">
-        <v>34.23029400373624</v>
+        <v>66.20052159564645</v>
       </c>
       <c r="R2">
-        <v>34.23029400373624</v>
+        <v>595.804694360818</v>
       </c>
       <c r="S2">
-        <v>0.01325574284598685</v>
+        <v>0.02105483448461217</v>
       </c>
       <c r="T2">
-        <v>0.01325574284598685</v>
+        <v>0.02105483448461217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H3">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N3">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q3">
-        <v>758.4124127707946</v>
+        <v>805.9987599133763</v>
       </c>
       <c r="R3">
-        <v>758.4124127707946</v>
+        <v>7253.988839220386</v>
       </c>
       <c r="S3">
-        <v>0.2936965692960967</v>
+        <v>0.2563449664102769</v>
       </c>
       <c r="T3">
-        <v>0.2936965692960967</v>
+        <v>0.2563449664102769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H4">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N4">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q4">
-        <v>535.623623718236</v>
+        <v>725.2511473307142</v>
       </c>
       <c r="R4">
-        <v>535.623623718236</v>
+        <v>6527.260325976427</v>
       </c>
       <c r="S4">
-        <v>0.2074212105063889</v>
+        <v>0.2306634826851193</v>
       </c>
       <c r="T4">
-        <v>0.2074212105063889</v>
+        <v>0.2306634826851194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H5">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I5">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J5">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N5">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q5">
-        <v>27.34743616138099</v>
+        <v>50.47092352507489</v>
       </c>
       <c r="R5">
-        <v>27.34743616138099</v>
+        <v>454.238311725674</v>
       </c>
       <c r="S5">
-        <v>0.01059034378181911</v>
+        <v>0.01605209317830895</v>
       </c>
       <c r="T5">
-        <v>0.01059034378181911</v>
+        <v>0.01605209317830895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H6">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N6">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q6">
-        <v>605.9146041802736</v>
+        <v>614.4891428705664</v>
       </c>
       <c r="R6">
-        <v>605.9146041802736</v>
+        <v>5530.402285835098</v>
       </c>
       <c r="S6">
-        <v>0.234641518964603</v>
+        <v>0.1954360310747433</v>
       </c>
       <c r="T6">
-        <v>0.234641518964603</v>
+        <v>0.1954360310747433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H7">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N7">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q7">
-        <v>427.923080490141</v>
+        <v>552.9275949966004</v>
       </c>
       <c r="R7">
-        <v>427.923080490141</v>
+        <v>4976.348354969404</v>
       </c>
       <c r="S7">
-        <v>0.1657139816625792</v>
+        <v>0.1758566052656856</v>
       </c>
       <c r="T7">
-        <v>0.1657139816625792</v>
+        <v>0.1758566052656856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H8">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I8">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J8">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N8">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q8">
-        <v>0.05442680529227785</v>
+        <v>0.1055146640326667</v>
       </c>
       <c r="R8">
-        <v>0.05442680529227785</v>
+        <v>0.949631976294</v>
       </c>
       <c r="S8">
-        <v>2.1076878124514E-05</v>
+        <v>3.355855412253061E-05</v>
       </c>
       <c r="T8">
-        <v>2.1076878124514E-05</v>
+        <v>3.355855412253061E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H9">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I9">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J9">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N9">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q9">
-        <v>1.205889868098042</v>
+        <v>1.284652844315333</v>
       </c>
       <c r="R9">
-        <v>1.205889868098042</v>
+        <v>11.561875598838</v>
       </c>
       <c r="S9">
-        <v>0.0004669830177428181</v>
+        <v>0.0004085791524794325</v>
       </c>
       <c r="T9">
-        <v>0.0004669830177428181</v>
+        <v>0.0004085791524794325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H10">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N10">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q10">
-        <v>0.8516515421946056</v>
+        <v>1.155952087769333</v>
       </c>
       <c r="R10">
-        <v>0.8516515421946056</v>
+        <v>10.403568789924</v>
       </c>
       <c r="S10">
-        <v>0.0003298035896649787</v>
+        <v>0.000367646346184163</v>
       </c>
       <c r="T10">
-        <v>0.0003298035896649787</v>
+        <v>0.0003676463461841631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H11">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I11">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J11">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N11">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q11">
-        <v>4.915385810344259</v>
+        <v>13.52279564959311</v>
       </c>
       <c r="R11">
-        <v>4.915385810344259</v>
+        <v>121.705160846338</v>
       </c>
       <c r="S11">
-        <v>0.00190349198530472</v>
+        <v>0.004300875843705446</v>
       </c>
       <c r="T11">
-        <v>0.00190349198530472</v>
+        <v>0.004300875843705446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H12">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I12">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J12">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N12">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q12">
-        <v>108.906152302274</v>
+        <v>164.6415505712696</v>
       </c>
       <c r="R12">
-        <v>108.906152302274</v>
+        <v>1481.773955141426</v>
       </c>
       <c r="S12">
-        <v>0.04217410312360304</v>
+        <v>0.05236364477218791</v>
       </c>
       <c r="T12">
-        <v>0.04217410312360304</v>
+        <v>0.05236364477218791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H13">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I13">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J13">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N13">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q13">
-        <v>76.91423156991932</v>
+        <v>148.1472173269275</v>
       </c>
       <c r="R13">
-        <v>76.91423156991932</v>
+        <v>1333.324955942348</v>
       </c>
       <c r="S13">
-        <v>0.0297851743480862</v>
+        <v>0.04711768223257409</v>
       </c>
       <c r="T13">
-        <v>0.0297851743480862</v>
+        <v>0.04711768223257409</v>
       </c>
     </row>
   </sheetData>
